--- a/data/trans_dic/P62A$jubilacion-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P62A$jubilacion-Dificultad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.7258842479635715</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.2470937846772044</v>
+        <v>0.2470937846772045</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.3048171878442223</v>
@@ -697,7 +697,7 @@
         <v>0.5302787339781899</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.1720328658419175</v>
+        <v>0.1720328658419174</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7772460112736042</v>
+        <v>0.7837891750441535</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5737800942958509</v>
+        <v>0.5702165702663533</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.6715825851883813</v>
+        <v>0.6680071367748691</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.181799119229792</v>
+        <v>0.1778338511349471</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2411282259240611</v>
+        <v>0.244769470230189</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1787634344546137</v>
+        <v>0.1767850288366247</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2749329683451073</v>
+        <v>0.2718866438140246</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.07955771037320675</v>
+        <v>0.08030449554733243</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.5038736575405486</v>
+        <v>0.505947885925399</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3848432430051284</v>
+        <v>0.3899985147593331</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.4873104369925794</v>
+        <v>0.4891918593590444</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1403645146611954</v>
+        <v>0.1352653385155702</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8863611343992017</v>
+        <v>0.8868281165620414</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7087908614974874</v>
+        <v>0.7044137121087523</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7711886558680003</v>
+        <v>0.7737784710132674</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3105663686908681</v>
+        <v>0.3122862040661167</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3706128271574725</v>
+        <v>0.3642365186298905</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2862115424172464</v>
+        <v>0.2878320971732678</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3896522760441781</v>
+        <v>0.3896927190259669</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1491475146262475</v>
+        <v>0.1495026844841497</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.5984735071948838</v>
+        <v>0.6009790959368516</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.4811721331539737</v>
+        <v>0.4821741860434158</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.5726741769881574</v>
+        <v>0.571307222529725</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2150140616286788</v>
+        <v>0.2064619524027539</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.8626672286273636</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.4739469496637341</v>
+        <v>0.4739469496637342</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.4169752346189783</v>
@@ -821,7 +821,7 @@
         <v>0.436177847788228</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.2504395684685596</v>
+        <v>0.2504395684685595</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.6936506812065595</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8344094242007695</v>
+        <v>0.8365213669522116</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7050858578924779</v>
+        <v>0.7074601041695082</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8129979071919506</v>
+        <v>0.8089575884001814</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4160071304587695</v>
+        <v>0.4262970193189877</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.337899645077098</v>
+        <v>0.3459294117934193</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2552123271093825</v>
+        <v>0.2637975033304644</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3642190006361437</v>
+        <v>0.3656658871559379</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2126773991966884</v>
+        <v>0.2142638419712863</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.6460762294864201</v>
+        <v>0.6475823541718166</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.5003431637267061</v>
+        <v>0.5009304706910499</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.6247156482864932</v>
+        <v>0.6223217473864375</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.3284761831609962</v>
+        <v>0.3298343346853338</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9178046761746727</v>
+        <v>0.9202111806382972</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8216917168451076</v>
+        <v>0.825406906288676</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9058160063353778</v>
+        <v>0.9027080828675291</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5221234895576486</v>
+        <v>0.5339056499874295</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4965004094920457</v>
+        <v>0.4975964525365724</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3858152042813994</v>
+        <v>0.3824810759951426</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.5127583283479917</v>
+        <v>0.5142671904484756</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2997217083728498</v>
+        <v>0.2909514448263764</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.7366492504954592</v>
+        <v>0.7358370561345601</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.59349208420981</v>
+        <v>0.5936111563852183</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.7141296855960217</v>
+        <v>0.7138072625449564</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3991170600484297</v>
+        <v>0.3990101694323534</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.9055208461650465</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.560745008651762</v>
+        <v>0.5607450086517619</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.4071291279254192</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8985339414186326</v>
+        <v>0.9028187270204022</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7649870962870683</v>
+        <v>0.7619941821613261</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8603313031617356</v>
+        <v>0.8528843490173569</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.505863031225818</v>
+        <v>0.504812640111853</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3234179926251255</v>
+        <v>0.322160978539953</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.4395438152537969</v>
+        <v>0.4380970396784853</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.4472576617104023</v>
+        <v>0.4475354794388927</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3333080703818674</v>
+        <v>0.3330252242549419</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.6734986559633349</v>
+        <v>0.670893352153477</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.6475312877503909</v>
+        <v>0.6470062539090565</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.6999626720510395</v>
+        <v>0.6969039238797208</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.4442095025632148</v>
+        <v>0.4456987378901047</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.966672775998225</v>
+        <v>0.9668501133576251</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.87248622064404</v>
+        <v>0.8707818424323501</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9479096816841651</v>
+        <v>0.9419777950946834</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6141687720100432</v>
+        <v>0.6210171286724773</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.499416032545043</v>
+        <v>0.4983643543424012</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.5916865195281988</v>
+        <v>0.5930929857203059</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.6199474558817885</v>
+        <v>0.6170396642559705</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4390886371099189</v>
+        <v>0.4410616183395746</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.772993346090454</v>
+        <v>0.7721680759151502</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.7427279650509216</v>
+        <v>0.7437536989574574</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.794636542144564</v>
+        <v>0.7920218324403528</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.5224588778567689</v>
+        <v>0.5277834038602239</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.9106117055981479</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.7221645521475181</v>
+        <v>0.7221645521475182</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.680809919513109</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.820897225170569</v>
+        <v>0.830717422680207</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7960900961750181</v>
+        <v>0.8055796919268198</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8492848202413974</v>
+        <v>0.8411269097291861</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.6603655086920481</v>
+        <v>0.6584716269195561</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.4986962023697019</v>
+        <v>0.5141887669174119</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3877857474007261</v>
+        <v>0.3809687785623062</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.4676682527982409</v>
+        <v>0.4549738932731845</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.5210801856473665</v>
+        <v>0.5128639985770066</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.7608487287188684</v>
+        <v>0.7683538520078428</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.6478518289173425</v>
+        <v>0.6469925706799992</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.716384438710809</v>
+        <v>0.7147495908622422</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.6167345271397932</v>
+        <v>0.619983482725967</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9704184916352684</v>
+        <v>0.971308955557205</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9326758043330173</v>
+        <v>0.9366208426751578</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9537152493608269</v>
+        <v>0.9505895948170375</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.7736247883303963</v>
+        <v>0.7750806944663501</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.8161808048484066</v>
+        <v>0.8309564047849204</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.6256817581220843</v>
+        <v>0.6143170158712735</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.6916347105013165</v>
+        <v>0.6842939295488837</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.6291071591583121</v>
+        <v>0.6292833688995346</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.9041065695616549</v>
+        <v>0.9082939294627911</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.7846611002758075</v>
+        <v>0.7861038676231061</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.8348064252707306</v>
+        <v>0.8342359841494743</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.6921850370561962</v>
+        <v>0.6962333517879855</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.8345258334785104</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.5231740962383273</v>
+        <v>0.5231740962383272</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.3856874330553259</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8669398607809156</v>
+        <v>0.8635678388940565</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.731164644697011</v>
+        <v>0.7301271010793092</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8109440454940193</v>
+        <v>0.8102186310680987</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.490967858608332</v>
+        <v>0.4935294482928992</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.3435217593096446</v>
+        <v>0.347362482186331</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3209680563531616</v>
+        <v>0.319995058341196</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3924026869351621</v>
+        <v>0.3930357465694357</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2942867252996579</v>
+        <v>0.2984786956286889</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.6413522431287164</v>
+        <v>0.6368870859798079</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.5475288450659267</v>
+        <v>0.5482144605845012</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.628058542139465</v>
+        <v>0.6275542972917674</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.4078687817146497</v>
+        <v>0.4062242659453816</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9133624266363594</v>
+        <v>0.9133100183265443</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7954351750774707</v>
+        <v>0.7925918197808305</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8610158874176732</v>
+        <v>0.8607703729550501</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.5528330184930623</v>
+        <v>0.5527897035870696</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.4289228150303417</v>
+        <v>0.4263747074044657</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3917899679668985</v>
+        <v>0.3935835986042766</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.4711310586194438</v>
+        <v>0.4721854864045032</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3450704932662337</v>
+        <v>0.3453190270486587</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.6933432943324115</v>
+        <v>0.6913767391886314</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.5985779583999118</v>
+        <v>0.6000888972370176</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.6775842646353626</v>
+        <v>0.6773252169656645</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.4458921625321497</v>
+        <v>0.4483490838558326</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>152501</v>
+        <v>153785</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>142257</v>
+        <v>141374</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>199808</v>
+        <v>198744</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>26081</v>
+        <v>25512</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>54324</v>
+        <v>55145</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>43879</v>
+        <v>43393</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>79348</v>
+        <v>78469</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>14016</v>
+        <v>14148</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>212382</v>
+        <v>213257</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>189877</v>
+        <v>192420</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>285626</v>
+        <v>286729</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>44865</v>
+        <v>43236</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>173910</v>
+        <v>174002</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>175731</v>
+        <v>174645</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>229443</v>
+        <v>230213</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>44554</v>
+        <v>44800</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>83496</v>
+        <v>82060</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>70253</v>
+        <v>70650</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>112458</v>
+        <v>112469</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>26276</v>
+        <v>26339</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>252256</v>
+        <v>253312</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>237404</v>
+        <v>237898</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>335660</v>
+        <v>334859</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>68726</v>
+        <v>65992</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>206019</v>
+        <v>206540</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>176219</v>
+        <v>176813</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>193798</v>
+        <v>192834</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>109258</v>
+        <v>111961</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>57204</v>
+        <v>58563</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>62355</v>
+        <v>64452</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>72050</v>
+        <v>72336</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>56238</v>
+        <v>56657</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>268895</v>
+        <v>269522</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>247295</v>
+        <v>247585</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>272497</v>
+        <v>271453</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>173128</v>
+        <v>173843</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>226610</v>
+        <v>227204</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>205362</v>
+        <v>206291</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>215923</v>
+        <v>215182</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>137128</v>
+        <v>140222</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>84054</v>
+        <v>84240</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>94264</v>
+        <v>93450</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>101434</v>
+        <v>101732</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>79255</v>
+        <v>76936</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>306591</v>
+        <v>306253</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>293334</v>
+        <v>293393</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>311499</v>
+        <v>311358</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>210360</v>
+        <v>210303</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>177326</v>
+        <v>178171</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>197745</v>
+        <v>196971</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>183766</v>
+        <v>182175</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>119524</v>
+        <v>119276</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>42685</v>
+        <v>42519</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>76372</v>
+        <v>76120</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>69783</v>
+        <v>69827</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>60095</v>
+        <v>60044</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>221803</v>
+        <v>220945</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>279892</v>
+        <v>279665</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>258723</v>
+        <v>257592</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>185047</v>
+        <v>185668</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>190773</v>
+        <v>190808</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>225532</v>
+        <v>225092</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>202473</v>
+        <v>201206</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>145114</v>
+        <v>146732</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>65913</v>
+        <v>65775</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>102807</v>
+        <v>103051</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>96727</v>
+        <v>96274</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>79168</v>
+        <v>79523</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>254570</v>
+        <v>254298</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>321040</v>
+        <v>321484</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>293717</v>
+        <v>292750</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>217644</v>
+        <v>219862</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>57721</v>
+        <v>58411</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>85417</v>
+        <v>86435</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>116647</v>
+        <v>115526</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>144882</v>
+        <v>144467</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>17054</v>
+        <v>17584</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>30379</v>
+        <v>29845</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>42063</v>
+        <v>40922</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>89799</v>
+        <v>88383</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>79518</v>
+        <v>80302</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>120264</v>
+        <v>120104</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>162828</v>
+        <v>162456</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>241593</v>
+        <v>242866</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>68234</v>
+        <v>68297</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>100072</v>
+        <v>100496</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>130990</v>
+        <v>130561</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>169731</v>
+        <v>170050</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>27912</v>
+        <v>28417</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>49015</v>
+        <v>48125</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>62208</v>
+        <v>61547</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>108416</v>
+        <v>108446</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>94490</v>
+        <v>94928</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>145661</v>
+        <v>145928</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>189744</v>
+        <v>189614</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>271149</v>
+        <v>272735</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>616199</v>
+        <v>613802</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>631467</v>
+        <v>630571</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>719176</v>
+        <v>718533</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>423100</v>
+        <v>425308</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>192635</v>
+        <v>194788</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>238118</v>
+        <v>237396</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>287395</v>
+        <v>287859</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>233439</v>
+        <v>236764</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>815504</v>
+        <v>809827</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>879067</v>
+        <v>880168</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>1016975</v>
+        <v>1016159</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>675025</v>
+        <v>672303</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>649195</v>
+        <v>649158</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>686974</v>
+        <v>684519</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>763582</v>
+        <v>763364</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>476414</v>
+        <v>476376</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>240524</v>
+        <v>239096</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>290658</v>
+        <v>291989</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>345055</v>
+        <v>345828</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>273723</v>
+        <v>273920</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>881613</v>
+        <v>879112</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>961028</v>
+        <v>963454</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>1097169</v>
+        <v>1096749</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>737954</v>
+        <v>742020</v>
       </c>
     </row>
     <row r="24">
